--- a/CW3/VariationPerformance.xlsx
+++ b/CW3/VariationPerformance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Fields per rule</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">Can see when fields </t>
+  </si>
+  <si>
+    <t>Part 4 Results</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,13 +756,202 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
   </sheetData>
   <sortState columnSort="1" ref="C2:L5">
     <sortCondition ref="C2:L2"/>
     <sortCondition ref="C3:L3"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
